--- a/Scopes_03.testcases.xlsx
+++ b/Scopes_03.testcases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="68">
   <si>
     <t>ID</t>
   </si>
@@ -54,277 +54,253 @@
     <t>1</t>
   </si>
   <si>
-    <t>Scopes_03|1|</t>
-  </si>
-  <si>
-    <t>Scopes_03
+    <t>Scopes_05|1|</t>
+  </si>
+  <si>
+    <t>Scopes_05
 | R01 | B02=J</t>
   </si>
   <si>
     <t>Vorbedingung prüfen</t>
   </si>
   <si>
-    <t>ET Testfall Vorbedingung
-B02 Testfall Vorbedingung
-B02/01 Testfall Vorbedingung
-A01 Testfall Vorbedingung
-A01/01 Testfall Vorbedingung</t>
+    <t>ET Testfall Vorbedingung [scope global, sid 0000]
+B02 Testfall Vorbedingung [scope global, sid 1020]
+B02/01 Testfall Vorbedingung [scope global, sid 1021]
+A01 Testfall Vorbedingung [scope global, sid 3010]
+A01/01 Testfall Vorbedingung [scope global, sid 3011]</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>B02/01 Testanweisung</t>
-  </si>
-  <si>
-    <t>B02/01 Erwartetes Resultat</t>
-  </si>
-  <si>
-    <t>ET Zwischenschritt Testanweisung</t>
-  </si>
-  <si>
-    <t>ET Zwischenschritt erwartetes Resultat</t>
-  </si>
-  <si>
-    <t>A01/01 Testanweisung</t>
-  </si>
-  <si>
-    <t>A01/01 Erwartetes Resultat</t>
+    <t>B02/01 Testanweisung [scope global, sid 1021]</t>
+  </si>
+  <si>
+    <t>B02/01 Erwartetes Resultat [scope global, sid 1021]</t>
+  </si>
+  <si>
+    <t>ET Zwischenschritt Testanweisung [scope global, sid 2000]</t>
+  </si>
+  <si>
+    <t>ET Zwischenschritt erwartetes Resultat [scope global, sid 2000]</t>
+  </si>
+  <si>
+    <t>A01/01 Testanweisung [scope global, sid 3011]</t>
+  </si>
+  <si>
+    <t>A01/01 Erwartetes Resultat [scope global, sid 3011]</t>
   </si>
   <si>
     <t>Nachbedingung prüfen</t>
   </si>
   <si>
-    <t>ET Nachbedingung
-B02 Testfall Nachbedingung
-B02/01 Testfall Nachbedingung
-A01 Testfall Nachbedingung
-A01/01 Testfall Nachbedingung</t>
+    <t>ET Testfall Nachbedingung [scope global, sid 0000]
+B02 Testfall Nachbedingung [scope global, sid 1020]
+B02/01 Testfall Nachbedingung [scope global, sid 1021]
+A01 Testfall Nachbedingung [scope global, sid 3010]
+A01/01 Testfall Nachbedingung [scope global, sid 3011]</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>Scopes_03|2|4|</t>
-  </si>
-  <si>
-    <t>Scopes_03
+    <t>Scopes_05|2|4|</t>
+  </si>
+  <si>
+    <t>Scopes_05
 | R02 | B02=N | B04=J
 | R04 | B03=J</t>
   </si>
   <si>
-    <t>ET Testfall Vorbedingung
-B02 Testfall Vorbedingung
-B02/02 Testfall Vorbedingung
-B04 Testfall Vorbedingung
-B04/01 Testfall Vorbedingung
-A01 Testfall Vorbedingung
-A01/01 Testfall Vorbedingung
-A02 Testfall Vorbedingung
-A02/01 Testfall Vorbedingung
-B03 Testfall Vorbedingung
-B03/01 Testfall Vorbedingung
-A01 Testfall Vorbedingung
-A01/01 Testfall Vorbedingung</t>
-  </si>
-  <si>
-    <t>B02/02 Testanweisung</t>
-  </si>
-  <si>
-    <t>B02/02 Erwartetes Resultat</t>
-  </si>
-  <si>
-    <t>B04/01 Testanweisung</t>
-  </si>
-  <si>
-    <t>B04/01 Erwartetes Resultat</t>
-  </si>
-  <si>
-    <t>A02/01 Testanweisung</t>
-  </si>
-  <si>
-    <t>A02/01 Erwartetes Resultat</t>
-  </si>
-  <si>
-    <t>B03/01 Testanweisung</t>
-  </si>
-  <si>
-    <t>B03/01 Erwartetes Resultat</t>
-  </si>
-  <si>
-    <t>ET Nachbedingung
-B02 Testfall Nachbedingung
-B02/02 Testfall Nachbedingung
-B04 Testfall Nachbedingung
-B04/01 Testfall Nachbedingung
-A01 Testfall Nachbedingung
-A01/01 Testfall Nachbedingung
-A02 Testfall Nachbedingung
-A02/01 Testfall Nachbedingung
-B03 Testfall Nachbedingung
-B03/01 Testfall Nachbedingung
-A01 Testfall Nachbedingung
-A01/01 Testfall Nachbedingung</t>
+    <t>ET Testfall Vorbedingung [scope global, sid 0000]
+B02 Testfall Vorbedingung [scope global, sid 1020]
+B02/02 Testfall Vorbedingung [scope global, sid 1021]
+B03 Testfall Vorbedingung [scope global, sid 1030]
+B03/01 Testfall Vorbedingung [scope global, sid 1031]
+B04 Testfall Vorbedingung [scope global, sid 1040]
+B04/01 Testfall Vorbedingung [scope global, sid 1041]
+A01 Testfall Vorbedingung [scope global, sid 3010]
+A01/01 Testfall Vorbedingung [scope global, sid 3011]
+A02 Testfall Vorbedingung [scope global, sid 3020]
+A02/01 Testfall Vorbedingung [scope global, sid 3021]</t>
+  </si>
+  <si>
+    <t>B02/02 Testanweisung [scope global, sid 1021]</t>
+  </si>
+  <si>
+    <t>B02/02 Erwartetes Resultat [scope global, sid 1021]</t>
+  </si>
+  <si>
+    <t>B03/01 Testanweisung [scope global, sid 1031]</t>
+  </si>
+  <si>
+    <t>B03/01 Erwartetes Resultat [scope global, sid 1031]</t>
+  </si>
+  <si>
+    <t>B04/01 Testanweisung [scope global, sid 1041]</t>
+  </si>
+  <si>
+    <t>B04/01 Erwartetes Resultat [scope global, sid 1041]</t>
+  </si>
+  <si>
+    <t>A02/01 Testanweisung [scope global, sid 3021]</t>
+  </si>
+  <si>
+    <t>A02/01 Erwartetes Resultat [scope global, sid 3021]</t>
+  </si>
+  <si>
+    <t>ET Testfall Nachbedingung [scope global, sid 0000]
+B02 Testfall Nachbedingung [scope global, sid 1020]
+B02/02 Testfall Nachbedingung [scope global, sid 1021]
+B03 Testfall Nachbedingung [scope global, sid 1030]
+B03/01 Testfall Nachbedingung [scope global, sid 1031]
+B04 Testfall Nachbedingung [scope global, sid 1040]
+B04/01 Testfall Nachbedingung [scope global, sid 1041]
+A01 Testfall Nachbedingung [scope global, sid 3010]
+A01/01 Testfall Nachbedingung [scope global, sid 3011]
+A02 Testfall Nachbedingung [scope global, sid 3020]
+A02/01 Testfall Nachbedingung [scope global, sid 3021]</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>Scopes_03|2|5|</t>
-  </si>
-  <si>
-    <t>Scopes_03
+    <t>Scopes_05|2|5|</t>
+  </si>
+  <si>
+    <t>Scopes_05
 | R02 | B02=N | B04=J
 | R05 | B03=N | B04=J</t>
   </si>
   <si>
-    <t>ET Testfall Vorbedingung
-B02 Testfall Vorbedingung
-B02/02 Testfall Vorbedingung
-B04 Testfall Vorbedingung
-B04/01 Testfall Vorbedingung
-A01 Testfall Vorbedingung
-A01/01 Testfall Vorbedingung
-A02 Testfall Vorbedingung
-A02/01 Testfall Vorbedingung
-B03 Testfall Vorbedingung
-B03/02 Testfall Vorbedingung
-B04 Testfall Vorbedingung
-B04/01 Testfall Vorbedingung
-A01 Testfall Vorbedingung
-A01/01 Testfall Vorbedingung
-A02 Testfall Vorbedingung
-A02/01 Testfall Vorbedingung</t>
-  </si>
-  <si>
-    <t>B03/02 Testanweisung</t>
-  </si>
-  <si>
-    <t>B03/02 Erwartetes Resultat</t>
-  </si>
-  <si>
-    <t>ET Nachbedingung
-B02 Testfall Nachbedingung
-B02/02 Testfall Nachbedingung
-B04 Testfall Nachbedingung
-B04/01 Testfall Nachbedingung
-A01 Testfall Nachbedingung
-A01/01 Testfall Nachbedingung
-A02 Testfall Nachbedingung
-A02/01 Testfall Nachbedingung
-B03 Testfall Nachbedingung
-B03/02 Testfall Nachbedingung
-B04 Testfall Nachbedingung
-B04/01 Testfall Nachbedingung
-A01 Testfall Nachbedingung
-A01/01 Testfall Nachbedingung
-A02 Testfall Nachbedingung
-A02/01 Testfall Nachbedingung</t>
+    <t>ET Testfall Vorbedingung [scope global, sid 0000]
+B02 Testfall Vorbedingung [scope global, sid 1020]
+B02/02 Testfall Vorbedingung [scope global, sid 1021]
+B03 Testfall Vorbedingung [scope global, sid 1030]
+B03/02 Testfall Vorbedingung [scope global, sid 1031]
+B04 Testfall Vorbedingung [scope global, sid 1040]
+B04/01 Testfall Vorbedingung [scope global, sid 1041]
+A01 Testfall Vorbedingung [scope global, sid 3010]
+A01/01 Testfall Vorbedingung [scope global, sid 3011]
+A02 Testfall Vorbedingung [scope global, sid 3020]
+A02/01 Testfall Vorbedingung [scope global, sid 3021]</t>
+  </si>
+  <si>
+    <t>B03/02 Testanweisung [scope global, sid 1031]</t>
+  </si>
+  <si>
+    <t>B03/02 Erwartetes Resultat [scope global, sid 1031]</t>
+  </si>
+  <si>
+    <t>ET Testfall Nachbedingung [scope global, sid 0000]
+B02 Testfall Nachbedingung [scope global, sid 1020]
+B02/02 Testfall Nachbedingung [scope global, sid 1021]
+B03 Testfall Nachbedingung [scope global, sid 1030]
+B03/02 Testfall Nachbedingung [scope global, sid 1031]
+B04 Testfall Nachbedingung [scope global, sid 1040]
+B04/01 Testfall Nachbedingung [scope global, sid 1041]
+A01 Testfall Nachbedingung [scope global, sid 3010]
+A01/01 Testfall Nachbedingung [scope global, sid 3011]
+A02 Testfall Nachbedingung [scope global, sid 3020]
+A02/01 Testfall Nachbedingung [scope global, sid 3021]</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>Scopes_03|3|4|</t>
-  </si>
-  <si>
-    <t>Scopes_03
+    <t>Scopes_05|3|4|</t>
+  </si>
+  <si>
+    <t>Scopes_05
 | R03 | B02=N | B04=N
 | R04 | B03=J</t>
   </si>
   <si>
-    <t>ET Testfall Vorbedingung
-B02 Testfall Vorbedingung
-B02/02 Testfall Vorbedingung
-B04 Testfall Vorbedingung
-B04/02 Testfall Vorbedingung
-A02 Testfall Vorbedingung
-A02/01 Testfall Vorbedingung
-B03 Testfall Vorbedingung
-B03/01 Testfall Vorbedingung
-A01 Testfall Vorbedingung
-A01/01 Testfall Vorbedingung</t>
-  </si>
-  <si>
-    <t>B04/02 Testanweisung</t>
-  </si>
-  <si>
-    <t>B04/02 Erwartetes Resultat</t>
-  </si>
-  <si>
-    <t>ET Nachbedingung
-B02 Testfall Nachbedingung
-B02/02 Testfall Nachbedingung
-B04 Testfall Nachbedingung
-B04/02 Testfall Nachbedingung
-A02 Testfall Nachbedingung
-A02/01 Testfall Nachbedingung
-B03 Testfall Nachbedingung
-B03/01 Testfall Nachbedingung
-A01 Testfall Nachbedingung
-A01/01 Testfall Nachbedingung</t>
+    <t>ET Testfall Vorbedingung [scope global, sid 0000]
+B02 Testfall Vorbedingung [scope global, sid 1020]
+B02/02 Testfall Vorbedingung [scope global, sid 1021]
+B03 Testfall Vorbedingung [scope global, sid 1030]
+B03/01 Testfall Vorbedingung [scope global, sid 1031]
+B04 Testfall Vorbedingung [scope global, sid 1040]
+B04/02 Testfall Vorbedingung [scope global, sid 1041]
+A01 Testfall Vorbedingung [scope global, sid 3010]
+A01/01 Testfall Vorbedingung [scope global, sid 3011]
+A02 Testfall Vorbedingung [scope global, sid 3020]
+A02/01 Testfall Vorbedingung [scope global, sid 3021]</t>
+  </si>
+  <si>
+    <t>B04/02 Testanweisung [scope global, sid 1041]</t>
+  </si>
+  <si>
+    <t>B04/02 Erwartetes Resultat [scope global, sid 1041]</t>
+  </si>
+  <si>
+    <t>ET Testfall Nachbedingung [scope global, sid 0000]
+B02 Testfall Nachbedingung [scope global, sid 1020]
+B02/02 Testfall Nachbedingung [scope global, sid 1021]
+B03 Testfall Nachbedingung [scope global, sid 1030]
+B03/01 Testfall Nachbedingung [scope global, sid 1031]
+B04 Testfall Nachbedingung [scope global, sid 1040]
+B04/02 Testfall Nachbedingung [scope global, sid 1041]
+A01 Testfall Nachbedingung [scope global, sid 3010]
+A01/01 Testfall Nachbedingung [scope global, sid 3011]
+A02 Testfall Nachbedingung [scope global, sid 3020]
+A02/01 Testfall Nachbedingung [scope global, sid 3021]</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>Scopes_03|3|6|</t>
-  </si>
-  <si>
-    <t>Scopes_03
+    <t>Scopes_05|3|6|</t>
+  </si>
+  <si>
+    <t>Scopes_05
 | R03 | B02=N | B04=N
 | R06 | B03=N | B04=N</t>
   </si>
   <si>
-    <t>ET Testfall Vorbedingung
-B02 Testfall Vorbedingung
-B02/02 Testfall Vorbedingung
-B04 Testfall Vorbedingung
-B04/02 Testfall Vorbedingung
-A02 Testfall Vorbedingung
-A02/01 Testfall Vorbedingung
-B03 Testfall Vorbedingung
-B03/02 Testfall Vorbedingung
-B04 Testfall Vorbedingung
-B04/02 Testfall Vorbedingung
-A02 Testfall Vorbedingung
-A02/01 Testfall Vorbedingung</t>
-  </si>
-  <si>
-    <t>ET Nachbedingung
-B02 Testfall Nachbedingung
-B02/02 Testfall Nachbedingung
-B04 Testfall Nachbedingung
-B04/02 Testfall Nachbedingung
-A02 Testfall Nachbedingung
-A02/01 Testfall Nachbedingung
-B03 Testfall Nachbedingung
-B03/02 Testfall Nachbedingung
-B04 Testfall Nachbedingung
-B04/02 Testfall Nachbedingung
-A02 Testfall Nachbedingung
-A02/01 Testfall Nachbedingung</t>
+    <t>ET Testfall Vorbedingung [scope global, sid 0000]
+B02 Testfall Vorbedingung [scope global, sid 1020]
+B02/02 Testfall Vorbedingung [scope global, sid 1021]
+B03 Testfall Vorbedingung [scope global, sid 1030]
+B03/02 Testfall Vorbedingung [scope global, sid 1031]
+B04 Testfall Vorbedingung [scope global, sid 1040]
+B04/02 Testfall Vorbedingung [scope global, sid 1041]
+A02 Testfall Vorbedingung [scope global, sid 3020]
+A02/01 Testfall Vorbedingung [scope global, sid 3021]</t>
+  </si>
+  <si>
+    <t>ET Testfall Nachbedingung [scope global, sid 0000]
+B02 Testfall Nachbedingung [scope global, sid 1020]
+B02/02 Testfall Nachbedingung [scope global, sid 1021]
+B03 Testfall Nachbedingung [scope global, sid 1030]
+B03/02 Testfall Nachbedingung [scope global, sid 1031]
+B04 Testfall Nachbedingung [scope global, sid 1040]
+B04/02 Testfall Nachbedingung [scope global, sid 1041]
+A02 Testfall Nachbedingung [scope global, sid 3020]
+A02/01 Testfall Nachbedingung [scope global, sid 3021]</t>
   </si>
   <si>
     <t>Diese Datei wurde erzeugt durch LF-ET 2.2.1 (230325a) und Kommandozeile:</t>
   </si>
   <si>
-    <t>-GenTest "D:/LF/Projekte/rulebased.group/lfet-examples-scope-de/Scopes_03.lfet" -Group "Einfach" -SwitchCoverage "1" -NonExecutableRules "50" -NonExecutableRuleSeq "50" -RecommendedTestCases -Protocol -ExportExcel "Scopes_03.testcases.xlsx" -OpenFileOut -OpenDirectoryOut</t>
+    <t>-GenTest "D:/LF/Projekte/rulebased.group/lfet-examples-scope-de/Scopes_05.lfet" -Group "Einfach" -SwitchCoverage "1" -NonExecutableRules "50" -NonExecutableRuleSeq "50" -RecommendedTestCases -Protocol -ExportExcel "Scopes_03.testcases.xlsx" -OpenFileOut -OpenDirectoryOut</t>
   </si>
   <si>
     <t>Aktueller Benutzer: lfhl</t>
   </si>
   <si>
-    <t>Aktuelles Verzeichnis (user.dir): "C:\Program Files\JetBrains\IntelliJ IDEA Community Edition 2022.1.2\jbr\bin"</t>
-  </si>
-  <si>
-    <t>Benötigte Zeit: 00:00:00.147 (25.03.2023 20:07:09.576 - 25.03.2023 20:07:09.723)</t>
-  </si>
-  <si>
-    <t>Entscheidungstabelle: D:\LF\Projekte\rulebased.group\lfet-examples-scope-de\Scopes_03.lfet</t>
-  </si>
-  <si>
-    <t>TestValueGroup: Einfach</t>
+    <t>Aktuelles Verzeichnis (user.dir): "D:\LF\Projekte\rulebased.group\lfet-examples-scope-de"</t>
+  </si>
+  <si>
+    <t>Benötigte Zeit: 00:00:00.133 (26.03.2023 18:29:18.183 - 26.03.2023 18:29:18.316)</t>
+  </si>
+  <si>
+    <t>Entscheidungstabelle: D:\LF\Projekte\rulebased.group\lfet-examples-scope-de\Scopes_05.lfet</t>
+  </si>
+  <si>
+    <t>TestValueGroups: Einfach, *ti.att</t>
   </si>
   <si>
     <t xml:space="preserve">Config: </t>
@@ -641,7 +617,7 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="true" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
@@ -652,7 +628,7 @@
   <cols>
     <col min="1" max="1" width="4.96875" customWidth="true"/>
     <col min="2" max="2" width="20.2734375" customWidth="true"/>
-    <col min="3" max="3" width="41.2578125" customWidth="true"/>
+    <col min="3" max="3" width="57.10546875" customWidth="true"/>
     <col min="4" max="4" width="4.96875" customWidth="true"/>
     <col min="5" max="5" width="18.55859375" customWidth="true"/>
     <col min="6" max="6" width="57.10546875" customWidth="true"/>
@@ -995,10 +971,10 @@
         <v>16</v>
       </c>
       <c r="F10" t="s" s="12">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s" s="12">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="H10" t="s" s="12">
         <v>16</v>
@@ -1030,10 +1006,10 @@
         <v>16</v>
       </c>
       <c r="F11" t="s" s="12">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H11" t="s" s="12">
         <v>16</v>
@@ -1065,10 +1041,10 @@
         <v>16</v>
       </c>
       <c r="F12" t="s" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G12" t="s" s="12">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="H12" t="s" s="12">
         <v>16</v>
@@ -1132,13 +1108,13 @@
         <v>8.0</v>
       </c>
       <c r="E14" t="s" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F14" t="s" s="12">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G14" t="s" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="H14" t="s" s="12">
         <v>16</v>
@@ -1154,96 +1130,96 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="13">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="D15" t="n" s="13">
-        <v>9.0</v>
-      </c>
-      <c r="E15" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="F15" t="s" s="12">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s" s="12">
-        <v>22</v>
-      </c>
-      <c r="H15" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="I15" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="J15" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="K15" t="s" s="12">
+      <c r="A15" t="s" s="11">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s" s="10">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="D15" t="n" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="E15" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="G15" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="H15" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="I15" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="K15" t="s" s="10">
         <v>16</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="13">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="C16" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="D16" t="n" s="13">
-        <v>10.0</v>
-      </c>
-      <c r="E16" t="s" s="12">
-        <v>23</v>
-      </c>
-      <c r="F16" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s" s="12">
-        <v>37</v>
-      </c>
-      <c r="H16" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="I16" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="J16" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="K16" t="s" s="12">
+      <c r="A16" t="s" s="11">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="D16" t="n" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="E16" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s" s="10">
+        <v>29</v>
+      </c>
+      <c r="G16" t="s" s="10">
+        <v>30</v>
+      </c>
+      <c r="H16" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="I16" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="K16" t="s" s="10">
         <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="11">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s" s="10">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s" s="10">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="D17" t="n" s="11">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E17" t="s" s="10">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F17" t="s" s="10">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G17" t="s" s="10">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="H17" t="s" s="10">
         <v>16</v>
@@ -1269,16 +1245,16 @@
         <v>16</v>
       </c>
       <c r="D18" t="n" s="11">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E18" t="s" s="10">
         <v>16</v>
       </c>
       <c r="F18" t="s" s="10">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G18" t="s" s="10">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H18" t="s" s="10">
         <v>16</v>
@@ -1304,16 +1280,16 @@
         <v>16</v>
       </c>
       <c r="D19" t="n" s="11">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E19" t="s" s="10">
         <v>16</v>
       </c>
       <c r="F19" t="s" s="10">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="G19" t="s" s="10">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H19" t="s" s="10">
         <v>16</v>
@@ -1339,16 +1315,16 @@
         <v>16</v>
       </c>
       <c r="D20" t="n" s="11">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="E20" t="s" s="10">
         <v>16</v>
       </c>
       <c r="F20" t="s" s="10">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G20" t="s" s="10">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H20" t="s" s="10">
         <v>16</v>
@@ -1374,16 +1350,16 @@
         <v>16</v>
       </c>
       <c r="D21" t="n" s="11">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="E21" t="s" s="10">
         <v>16</v>
       </c>
       <c r="F21" t="s" s="10">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s" s="10">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="H21" t="s" s="10">
         <v>16</v>
@@ -1409,261 +1385,261 @@
         <v>16</v>
       </c>
       <c r="D22" t="n" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="E22" t="s" s="10">
+        <v>23</v>
+      </c>
+      <c r="F22" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="G22" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="H22" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="I22" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="K22" t="s" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="13">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s" s="12">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s" s="12">
+        <v>47</v>
+      </c>
+      <c r="D23" t="n" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="E23" t="s" s="12">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s" s="12">
+        <v>48</v>
+      </c>
+      <c r="G23" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="H23" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="I23" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="K23" t="s" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="13">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="D24" t="n" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="E24" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="F24" t="s" s="12">
+        <v>29</v>
+      </c>
+      <c r="G24" t="s" s="12">
+        <v>30</v>
+      </c>
+      <c r="H24" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="I24" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="K24" t="s" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="13">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="D25" t="n" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="E25" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="F25" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="G25" t="s" s="12">
+        <v>32</v>
+      </c>
+      <c r="H25" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="I25" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="K25" t="s" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="13">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="D26" t="n" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="E26" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="F26" t="s" s="12">
+        <v>49</v>
+      </c>
+      <c r="G26" t="s" s="12">
+        <v>50</v>
+      </c>
+      <c r="H26" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="I26" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="K26" t="s" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="13">
+        <v>16</v>
+      </c>
+      <c r="B27" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="D27" t="n" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="E27" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="F27" t="s" s="12">
+        <v>19</v>
+      </c>
+      <c r="G27" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="H27" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="I27" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="K27" t="s" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="13">
+        <v>16</v>
+      </c>
+      <c r="B28" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="D28" t="n" s="13">
         <v>6.0</v>
       </c>
-      <c r="E22" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="F22" t="s" s="10">
-        <v>33</v>
-      </c>
-      <c r="G22" t="s" s="10">
-        <v>34</v>
-      </c>
-      <c r="H22" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="I22" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="J22" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="K22" t="s" s="10">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="11">
-        <v>16</v>
-      </c>
-      <c r="B23" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="C23" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="D23" t="n" s="11">
-        <v>7.0</v>
-      </c>
-      <c r="E23" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="F23" t="s" s="10">
-        <v>42</v>
-      </c>
-      <c r="G23" t="s" s="10">
-        <v>43</v>
-      </c>
-      <c r="H23" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="I23" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="J23" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="K23" t="s" s="10">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="11">
-        <v>16</v>
-      </c>
-      <c r="B24" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="C24" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="D24" t="n" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="E24" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="F24" t="s" s="10">
-        <v>31</v>
-      </c>
-      <c r="G24" t="s" s="10">
-        <v>32</v>
-      </c>
-      <c r="H24" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="I24" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="J24" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="K24" t="s" s="10">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="11">
-        <v>16</v>
-      </c>
-      <c r="B25" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="C25" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="D25" t="n" s="11">
-        <v>9.0</v>
-      </c>
-      <c r="E25" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="F25" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="G25" t="s" s="10">
-        <v>20</v>
-      </c>
-      <c r="H25" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="I25" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="J25" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="K25" t="s" s="10">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="11">
-        <v>16</v>
-      </c>
-      <c r="B26" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="C26" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="D26" t="n" s="11">
-        <v>10.0</v>
-      </c>
-      <c r="E26" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="F26" t="s" s="10">
+      <c r="E28" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="F28" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="10">
+      <c r="G28" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="I26" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="J26" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="K26" t="s" s="10">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="11">
-        <v>16</v>
-      </c>
-      <c r="B27" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="C27" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="D27" t="n" s="11">
-        <v>11.0</v>
-      </c>
-      <c r="E27" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="F27" t="s" s="10">
-        <v>33</v>
-      </c>
-      <c r="G27" t="s" s="10">
-        <v>34</v>
-      </c>
-      <c r="H27" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="I27" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="J27" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="K27" t="s" s="10">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="11">
-        <v>16</v>
-      </c>
-      <c r="B28" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="C28" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="D28" t="n" s="11">
-        <v>12.0</v>
-      </c>
-      <c r="E28" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="F28" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="G28" t="s" s="10">
-        <v>44</v>
-      </c>
-      <c r="H28" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="I28" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="J28" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="K28" t="s" s="10">
+      <c r="H28" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="I28" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="K28" t="s" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="13">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="B29" t="s" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="D29" t="n" s="13">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="E29" t="s" s="12">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F29" t="s" s="12">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G29" t="s" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="H29" t="s" s="12">
         <v>16</v>
@@ -1689,622 +1665,272 @@
         <v>16</v>
       </c>
       <c r="D30" t="n" s="13">
+        <v>8.0</v>
+      </c>
+      <c r="E30" t="s" s="12">
+        <v>23</v>
+      </c>
+      <c r="F30" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="G30" t="s" s="12">
+        <v>51</v>
+      </c>
+      <c r="H30" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="I30" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="K30" t="s" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="11">
+        <v>52</v>
+      </c>
+      <c r="B31" t="s" s="10">
+        <v>53</v>
+      </c>
+      <c r="C31" t="s" s="10">
+        <v>54</v>
+      </c>
+      <c r="D31" t="n" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="E31" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="F31" t="s" s="10">
+        <v>55</v>
+      </c>
+      <c r="G31" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="H31" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="I31" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="K31" t="s" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="11">
+        <v>16</v>
+      </c>
+      <c r="B32" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="D32" t="n" s="11">
         <v>2.0</v>
       </c>
-      <c r="E30" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="F30" t="s" s="12">
+      <c r="E32" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="F32" t="s" s="10">
         <v>29</v>
       </c>
-      <c r="G30" t="s" s="12">
+      <c r="G32" t="s" s="10">
         <v>30</v>
       </c>
-      <c r="H30" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="I30" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="J30" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="K30" t="s" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="13">
-        <v>16</v>
-      </c>
-      <c r="B31" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="C31" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="D31" t="n" s="13">
+      <c r="H32" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="I32" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="K32" t="s" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="11">
+        <v>16</v>
+      </c>
+      <c r="B33" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="C33" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="D33" t="n" s="11">
         <v>3.0</v>
       </c>
-      <c r="E31" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="F31" t="s" s="12">
+      <c r="E33" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="F33" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="G33" t="s" s="10">
+        <v>43</v>
+      </c>
+      <c r="H33" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="I33" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="J33" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="K33" t="s" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="11">
+        <v>16</v>
+      </c>
+      <c r="B34" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="C34" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="D34" t="n" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="E34" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="F34" t="s" s="10">
         <v>49</v>
       </c>
-      <c r="G31" t="s" s="12">
+      <c r="G34" t="s" s="10">
         <v>50</v>
       </c>
-      <c r="H31" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="I31" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="J31" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="K31" t="s" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="13">
-        <v>16</v>
-      </c>
-      <c r="B32" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="C32" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="D32" t="n" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="E32" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="F32" t="s" s="12">
+      <c r="H34" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="I34" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="K34" t="s" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="11">
+        <v>16</v>
+      </c>
+      <c r="B35" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="C35" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="D35" t="n" s="11">
+        <v>5.0</v>
+      </c>
+      <c r="E35" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="F35" t="s" s="10">
         <v>19</v>
       </c>
-      <c r="G32" t="s" s="12">
+      <c r="G35" t="s" s="10">
         <v>20</v>
       </c>
-      <c r="H32" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="I32" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="J32" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="K32" t="s" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="13">
-        <v>16</v>
-      </c>
-      <c r="B33" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="C33" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="D33" t="n" s="13">
-        <v>5.0</v>
-      </c>
-      <c r="E33" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="F33" t="s" s="12">
-        <v>33</v>
-      </c>
-      <c r="G33" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="H33" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="I33" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="J33" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="K33" t="s" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="13">
-        <v>16</v>
-      </c>
-      <c r="B34" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="C34" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="D34" t="n" s="13">
+      <c r="H35" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="I35" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="J35" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="K35" t="s" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="11">
+        <v>16</v>
+      </c>
+      <c r="B36" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="C36" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="D36" t="n" s="11">
         <v>6.0</v>
       </c>
-      <c r="E34" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="F34" t="s" s="12">
+      <c r="E36" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="F36" t="s" s="10">
         <v>35</v>
       </c>
-      <c r="G34" t="s" s="12">
+      <c r="G36" t="s" s="10">
         <v>36</v>
       </c>
-      <c r="H34" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="I34" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="J34" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="K34" t="s" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="13">
-        <v>16</v>
-      </c>
-      <c r="B35" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="C35" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="D35" t="n" s="13">
+      <c r="H36" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="I36" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="J36" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="K36" t="s" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="11">
+        <v>16</v>
+      </c>
+      <c r="B37" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="C37" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="D37" t="n" s="11">
         <v>7.0</v>
       </c>
-      <c r="E35" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="F35" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="G35" t="s" s="12">
-        <v>20</v>
-      </c>
-      <c r="H35" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="I35" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="J35" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="K35" t="s" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="13">
-        <v>16</v>
-      </c>
-      <c r="B36" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="C36" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="D36" t="n" s="13">
-        <v>8.0</v>
-      </c>
-      <c r="E36" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="F36" t="s" s="12">
-        <v>21</v>
-      </c>
-      <c r="G36" t="s" s="12">
-        <v>22</v>
-      </c>
-      <c r="H36" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="I36" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="J36" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="K36" t="s" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="13">
-        <v>16</v>
-      </c>
-      <c r="B37" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="C37" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="D37" t="n" s="13">
-        <v>9.0</v>
-      </c>
-      <c r="E37" t="s" s="12">
+      <c r="E37" t="s" s="10">
         <v>23</v>
       </c>
-      <c r="F37" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="G37" t="s" s="12">
-        <v>51</v>
-      </c>
-      <c r="H37" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="I37" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="J37" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="K37" t="s" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="11">
-        <v>52</v>
-      </c>
-      <c r="B38" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="C38" t="s" s="10">
-        <v>54</v>
-      </c>
-      <c r="D38" t="n" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="E38" t="s" s="10">
-        <v>14</v>
-      </c>
-      <c r="F38" t="s" s="10">
-        <v>55</v>
-      </c>
-      <c r="G38" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="H38" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="I38" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="J38" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="K38" t="s" s="10">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="11">
-        <v>16</v>
-      </c>
-      <c r="B39" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="C39" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="D39" t="n" s="11">
-        <v>2.0</v>
-      </c>
-      <c r="E39" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="F39" t="s" s="10">
-        <v>29</v>
-      </c>
-      <c r="G39" t="s" s="10">
-        <v>30</v>
-      </c>
-      <c r="H39" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="I39" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="J39" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="K39" t="s" s="10">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="11">
-        <v>16</v>
-      </c>
-      <c r="B40" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="C40" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="D40" t="n" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="E40" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="F40" t="s" s="10">
-        <v>49</v>
-      </c>
-      <c r="G40" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="H40" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="I40" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="J40" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="K40" t="s" s="10">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="11">
-        <v>16</v>
-      </c>
-      <c r="B41" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="C41" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="D41" t="n" s="11">
-        <v>4.0</v>
-      </c>
-      <c r="E41" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="F41" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="G41" t="s" s="10">
-        <v>20</v>
-      </c>
-      <c r="H41" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="I41" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="J41" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="K41" t="s" s="10">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="11">
-        <v>16</v>
-      </c>
-      <c r="B42" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="C42" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="D42" t="n" s="11">
-        <v>5.0</v>
-      </c>
-      <c r="E42" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="F42" t="s" s="10">
-        <v>33</v>
-      </c>
-      <c r="G42" t="s" s="10">
-        <v>34</v>
-      </c>
-      <c r="H42" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="I42" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="J42" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="K42" t="s" s="10">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="11">
-        <v>16</v>
-      </c>
-      <c r="B43" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="C43" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="D43" t="n" s="11">
-        <v>6.0</v>
-      </c>
-      <c r="E43" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="F43" t="s" s="10">
-        <v>42</v>
-      </c>
-      <c r="G43" t="s" s="10">
-        <v>43</v>
-      </c>
-      <c r="H43" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="I43" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="J43" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="K43" t="s" s="10">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="11">
-        <v>16</v>
-      </c>
-      <c r="B44" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="C44" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="D44" t="n" s="11">
-        <v>7.0</v>
-      </c>
-      <c r="E44" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="F44" t="s" s="10">
-        <v>49</v>
-      </c>
-      <c r="G44" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="H44" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="I44" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="J44" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="K44" t="s" s="10">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="11">
-        <v>16</v>
-      </c>
-      <c r="B45" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="C45" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="D45" t="n" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="E45" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="F45" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="G45" t="s" s="10">
-        <v>20</v>
-      </c>
-      <c r="H45" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="I45" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="J45" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="K45" t="s" s="10">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="11">
-        <v>16</v>
-      </c>
-      <c r="B46" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="C46" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="D46" t="n" s="11">
-        <v>9.0</v>
-      </c>
-      <c r="E46" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="F46" t="s" s="10">
-        <v>33</v>
-      </c>
-      <c r="G46" t="s" s="10">
-        <v>34</v>
-      </c>
-      <c r="H46" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="I46" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="J46" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="K46" t="s" s="10">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="11">
-        <v>16</v>
-      </c>
-      <c r="B47" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="C47" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="D47" t="n" s="11">
-        <v>10.0</v>
-      </c>
-      <c r="E47" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="F47" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="G47" t="s" s="10">
+      <c r="F37" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="G37" t="s" s="10">
         <v>56</v>
       </c>
-      <c r="H47" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="I47" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="J47" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="K47" t="s" s="10">
+      <c r="H37" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="I37" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="J37" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="K37" t="s" s="10">
         <v>16</v>
       </c>
     </row>
